--- a/Ошибки и идеи исправления.xlsx
+++ b/Ошибки и идеи исправления.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\My_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2361E4-F9E2-405C-986E-376C124DE454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0762C87-9197-411B-A31F-A45AEB0E69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2430" windowWidth="19245" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1. При создании текста неочевидно, что нужно дважды щелкнуть в любом месте. Желательно для этого выбрать элемент управления или область.</t>
   </si>
@@ -66,14 +66,20 @@
     <t>Добавить окно настройки перед началом теста и таймер</t>
   </si>
   <si>
-    <t>Можно провести рефакторинг но не понятно есть ли в этом смысл, если код никто не смотрит?</t>
+    <t>Можно провести рефакторинг но не понятно есть ли в этом смысл, если код никто не смотрит? (В самом конце)</t>
+  </si>
+  <si>
+    <t>Сделать нормальное окно компиляции результатов</t>
+  </si>
+  <si>
+    <t>Развести ui файлы и файлы py по разным веткам</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +101,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +126,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -123,17 +141,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
@@ -414,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +483,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -491,16 +512,31 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ошибки и идеи исправления.xlsx
+++ b/Ошибки и идеи исправления.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\My_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0762C87-9197-411B-A31F-A45AEB0E69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72578F24-98CF-44AE-B8F4-C5F859710922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,13 +477,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -512,7 +512,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -524,7 +524,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/Ошибки и идеи исправления.xlsx
+++ b/Ошибки и идеи исправления.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\My_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72578F24-98CF-44AE-B8F4-C5F859710922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651D355-66AC-4245-90D3-6CA0BBEECF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>5. Нет проверки на правильность открытия БД - это вопросы или ответы</t>
   </si>
   <si>
-    <t>6. После окончания теста вновь появляется окно с вводом ФИО. Лучше его закрыть.</t>
-  </si>
-  <si>
     <t>7. Не контролируется то, что можно дважды выбрать один и тот же вопрос, что вызовет появления двух и более одинаковых окон для ответа.</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Реализовать менеджер проектов</t>
   </si>
   <si>
-    <t>Добавить окно настройки перед началом теста и таймер</t>
-  </si>
-  <si>
     <t>Можно провести рефакторинг но не понятно есть ли в этом смысл, если код никто не смотрит? (В самом конце)</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>Развести ui файлы и файлы py по разным веткам</t>
+  </si>
+  <si>
+    <t>Добавить окно настройки перед началом теста</t>
+  </si>
+  <si>
+    <t>Добавить проверку расширений файлов</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,17 +449,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -489,28 +489,28 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3"/>
     </row>
@@ -518,23 +518,23 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1"/>
     </row>
